--- a/samples/segm.xlsx
+++ b/samples/segm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danki\ArtificialDilation\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danki\GitHub\ArtificialDilation\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A6B8682-4400-4C98-A87A-7DBA8E7361A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0BF77E-BDD6-49CC-B142-FBB076D7D93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="segm" sheetId="1" r:id="rId1"/>
@@ -49,22 +49,22 @@
     <t>LVL.png</t>
   </si>
   <si>
-    <t>S1008R02.png</t>
-  </si>
-  <si>
-    <t>S1028R02.png</t>
-  </si>
-  <si>
     <t>mask_1.png</t>
   </si>
   <si>
     <t>mask_2.png</t>
+  </si>
+  <si>
+    <t>NIR1.jpg</t>
+  </si>
+  <si>
+    <t>NIR2.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,48 +546,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -898,14 +898,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -951,7 +953,7 @@
         <v>137.87236799999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -974,55 +976,55 @@
         <v>181.92204530000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>196.26050733859299</v>
+      </c>
+      <c r="C4">
+        <v>139.08833244687699</v>
+      </c>
+      <c r="D4">
+        <v>42.004865819770302</v>
+      </c>
+      <c r="E4">
+        <v>191.53747183720299</v>
+      </c>
+      <c r="F4">
+        <v>142.900293149379</v>
+      </c>
+      <c r="G4">
+        <v>118.301421846708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>188.72163305901199</v>
+      </c>
+      <c r="C5">
+        <v>138.79286498836899</v>
+      </c>
+      <c r="D5">
+        <v>49.687340669782998</v>
+      </c>
+      <c r="E5">
+        <v>185.03756669707701</v>
+      </c>
+      <c r="F5">
+        <v>141.24332834398999</v>
+      </c>
+      <c r="G5">
+        <v>111.605677496384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
-      </c>
-      <c r="B4">
-        <v>183.80231509999999</v>
-      </c>
-      <c r="C4">
-        <v>154.66008220000001</v>
-      </c>
-      <c r="D4">
-        <v>35.299781619999997</v>
-      </c>
-      <c r="E4">
-        <v>179.42818840000001</v>
-      </c>
-      <c r="F4">
-        <v>157.75116929999999</v>
-      </c>
-      <c r="G4">
-        <v>110.6508298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>142.1258053</v>
-      </c>
-      <c r="C5">
-        <v>131.084002</v>
-      </c>
-      <c r="D5">
-        <v>45.413137650000003</v>
-      </c>
-      <c r="E5">
-        <v>139.89511479999999</v>
-      </c>
-      <c r="F5">
-        <v>128.59435389999999</v>
-      </c>
-      <c r="G5">
-        <v>102.2821126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
       </c>
       <c r="B6">
         <v>254.31182050000001</v>
@@ -1043,9 +1045,9 @@
         <v>137.71887910000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>184.42797669999999</v>
